--- a/クリックポスト発送情報/20200816231122/英子日本发货表格8.16.xlsx
+++ b/クリックポスト発送情報/20200816231122/英子日本发货表格8.16.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
   <si>
     <t>序号</t>
   </si>
@@ -308,6 +308,62 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628566635082</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628566635071</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628566635060</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628566635056</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628566635045</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628566635034</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628566635023</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628566635012</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628566635001</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628566634990</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628566634986</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628566634975</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628566634964</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>628566634953</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -437,7 +493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -533,6 +589,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1566,7 +1625,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1941,7 +2000,9 @@
       <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="27"/>
+      <c r="K2" s="32" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
       <c r="A3" s="12" t="s">
@@ -1966,7 +2027,9 @@
       <c r="I3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="27"/>
+      <c r="K3" s="32" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
       <c r="A4" s="12" t="s">
@@ -2016,7 +2079,9 @@
       <c r="I5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="32" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
       <c r="A6" s="12" t="s">
@@ -2041,7 +2106,9 @@
       <c r="I6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="32" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
       <c r="A7" s="12" t="s">
@@ -2066,7 +2133,9 @@
       <c r="I7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="27"/>
+      <c r="K7" s="32" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
       <c r="A8" s="12" t="s">
@@ -2091,7 +2160,9 @@
       <c r="I8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="27"/>
+      <c r="K8" s="32" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
       <c r="A9" s="15" t="s">
@@ -2116,7 +2187,9 @@
       <c r="I9" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="32" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
       <c r="A10" s="28" t="s">
@@ -2141,7 +2214,9 @@
       <c r="I10" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="27"/>
+      <c r="K10" s="32" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="1:181" ht="121.95" customHeight="1">
       <c r="A11" s="29"/>
@@ -2156,7 +2231,9 @@
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="K11" s="27"/>
+      <c r="K11" s="32" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:181" ht="121.95" customHeight="1">
       <c r="A12" s="18" t="s">
@@ -2181,7 +2258,9 @@
       <c r="I12" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="27"/>
+      <c r="K12" s="32" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="1:181" ht="121.95" customHeight="1">
       <c r="A13" s="18" t="s">
@@ -2206,7 +2285,9 @@
       <c r="I13" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="32" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="14" spans="1:181" ht="121.95" customHeight="1">
       <c r="A14" s="30" t="s">
@@ -2231,7 +2312,9 @@
       <c r="I14" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="27"/>
+      <c r="K14" s="32" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="15" spans="1:181" ht="121.95" customHeight="1">
       <c r="A15" s="31"/>
@@ -2246,7 +2329,9 @@
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="K15" s="27"/>
+      <c r="K15" s="32" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="16" spans="1:181" ht="121.95" customHeight="1">
       <c r="A16" s="12" t="s">
@@ -2296,7 +2381,9 @@
       <c r="I17" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="27"/>
+      <c r="K17" s="32" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="121.95" customHeight="1"/>
     <row r="19" spans="1:11" ht="121.95" customHeight="1"/>
